--- a/仕様書/Character_Menu.xlsx
+++ b/仕様書/Character_Menu.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwuser\Documents\ゲームサークル_★\高城チーム_企画\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwuser\Documents\ゲームサークル_★\2019高城チーム企画\SLG\Resource\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19845" windowHeight="7890" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19845" windowHeight="7890" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="2" r:id="rId1"/>
     <sheet name="使い方" sheetId="9" r:id="rId2"/>
     <sheet name="詳細" sheetId="1" r:id="rId3"/>
     <sheet name="画像仕様" sheetId="10" r:id="rId4"/>
+    <sheet name="オブジェクト仕様" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="127">
   <si>
     <t>オブジェクト名</t>
     <rPh sb="6" eb="7">
@@ -639,13 +639,524 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>オブジェクト仕様</t>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>継承元</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定数</t>
+    <rPh sb="0" eb="2">
+      <t>テイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンバ変数</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンバクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モジュール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モジュール名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻り値</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数</t>
+  </si>
+  <si>
+    <t>fairyButton</t>
+  </si>
+  <si>
+    <t>private  BackButtom</t>
+  </si>
+  <si>
+    <t>backBottun</t>
+  </si>
+  <si>
+    <t>マップ選択または戦闘画面に戻るボタン</t>
+  </si>
+  <si>
+    <t>CharacterMenu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターメニューを表示する</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニット一覧を表示する。装備変更もここで行う</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニット一覧に表示するユニットのボタン配列</t>
+    <rPh sb="19" eb="21">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装備変更一覧に表示する精霊のボタン配列</t>
+    <rPh sb="17" eb="19">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void Init()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void Update()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void Draw()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>描画処理</t>
+    <rPh sb="0" eb="2">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>private int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐藤千紗</t>
+    <rPh sb="0" eb="4">
+      <t>サトウチサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構造体変数の枠を追加しました</t>
+    <rPh sb="0" eb="3">
+      <t>コウゾウタイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構造体変数</t>
+    <rPh sb="0" eb="5">
+      <t>コウゾウタイヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構造体名</t>
+    <rPh sb="0" eb="3">
+      <t>コウゾウタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンバ変数</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装備の変更を行う</t>
+    <rPh sb="0" eb="2">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーと精霊の情報を取得,最初に表示するデータの設定</t>
+    <rPh sb="6" eb="8">
+      <t>セイレイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧の移動、キャラ詳細表示の更新</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scrollBar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクロールバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラの詳細データ (精霊の情報も含まれている)</t>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイレイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細を表示するキャラの番号</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UnitNumber</t>
+  </si>
+  <si>
+    <t>private Unit</t>
+  </si>
+  <si>
+    <t>UnitMenu(Unit*)</t>
+  </si>
+  <si>
+    <t>Unit _Unit：キャラクターデータ
+int num：ステータスを表示するキャラクターの配列番号</t>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UnitButton</t>
+  </si>
+  <si>
+    <t>uharacerStatus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void StatusDisplay(Unit  _unit,int _num)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void Scroll(UnitButton* _unitButton)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void Scroll(FairyButton* _fairyButton)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクロールでキャラクターボタンの座標を移動させる</t>
+    <rPh sb="16" eb="18">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクロールで精霊ボタンの座標を移動させる</t>
+    <rPh sb="6" eb="8">
+      <t>セイレイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void ChangeEquip(Unit* _unit,FairyButton* _fairy)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unit* _unit：選択しているキャラクターの情報
+FairyButton* _fairybutton：選択された精霊の情報(装備する精霊)</t>
+    <rPh sb="12" eb="14">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>セイレイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>セイレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UnitButton* _unitButton：ボタン一覧</t>
+    <rPh sb="27" eb="29">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FairyButton* _fairyButton：精霊のボタン配列</t>
+    <rPh sb="26" eb="28">
+      <t>セイレイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>private 
+vector&lt;UnitButton*&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pribate
+vector&lt;FairyButton*&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>private
+vector&lt;ScrollButton*&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックされたユニットの詳細ステータスを表示する</t>
+    <rPh sb="12" eb="14">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cancelButton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>private CancelButton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンセルボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -713,7 +1224,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1039,13 +1550,250 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1118,6 +1866,69 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1189,6 +2000,99 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1473,7 +2377,7 @@
   <dimension ref="B1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1486,14 +2390,14 @@
   <sheetData>
     <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="46"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
@@ -1521,28 +2425,34 @@
     </row>
     <row r="7" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="29"/>
+      <c r="C8" s="50"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="42">
+        <v>43651</v>
+      </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="11" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="11" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
@@ -1718,57 +2628,57 @@
   <sheetData>
     <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="58"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="39"/>
+      <c r="D6" s="60"/>
     </row>
     <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="41"/>
+      <c r="D7" s="62"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="13" t="s">
@@ -1842,7 +2752,7 @@
   <dimension ref="B1:D17"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1856,57 +2766,57 @@
   <sheetData>
     <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="58"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="39"/>
+      <c r="D6" s="60"/>
     </row>
     <row r="7" spans="2:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="41"/>
+      <c r="D7" s="62"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="13" t="s">
@@ -1991,7 +2901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -2006,57 +2916,57 @@
   <sheetData>
     <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="58"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="39"/>
+      <c r="D6" s="60"/>
     </row>
     <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="41"/>
+      <c r="D7" s="62"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="13" t="s">
@@ -2129,4 +3039,697 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B2" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
+    </row>
+    <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+    </row>
+    <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="58"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="60"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="60"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="78"/>
+      <c r="D8" s="79"/>
+    </row>
+    <row r="9" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="77"/>
+    </row>
+    <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="83"/>
+      <c r="D11" s="84"/>
+    </row>
+    <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B13" s="27"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="28"/>
+    </row>
+    <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="4"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="29"/>
+    </row>
+    <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+    </row>
+    <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="93"/>
+      <c r="D16" s="94"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="72"/>
+      <c r="D17" s="73"/>
+    </row>
+    <row r="18" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="74"/>
+      <c r="D18" s="75"/>
+    </row>
+    <row r="19" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="70"/>
+      <c r="D19" s="71"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B20" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B21" s="3"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B22" s="3"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B23" s="3"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+    </row>
+    <row r="24" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="4"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="29"/>
+    </row>
+    <row r="25" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+    </row>
+    <row r="26" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="86"/>
+      <c r="D26" s="87"/>
+    </row>
+    <row r="27" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B28" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B29" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B30" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B33" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B34" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B35" s="10"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="34"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B36" s="10"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="34"/>
+    </row>
+    <row r="37" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="4"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="29"/>
+    </row>
+    <row r="38" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+    </row>
+    <row r="39" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="86"/>
+      <c r="D39" s="87"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B40" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B41" s="37"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="32"/>
+    </row>
+    <row r="42" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="41"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="29"/>
+    </row>
+    <row r="43" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="44" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="86"/>
+      <c r="D44" s="87"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B45" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="89"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="91"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B47" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="91"/>
+    </row>
+    <row r="48" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="81"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="89"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="90"/>
+      <c r="D50" s="91"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B51" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="91"/>
+    </row>
+    <row r="52" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="81"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="89"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="91"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B55" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="91"/>
+    </row>
+    <row r="56" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="81"/>
+    </row>
+    <row r="57" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="89"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="90" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="91"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B59" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="91"/>
+    </row>
+    <row r="60" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="96"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B61" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="D61" s="73"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B62" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" s="98"/>
+    </row>
+    <row r="63" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="99" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63" s="98"/>
+    </row>
+    <row r="64" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" s="75"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B65" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" s="89"/>
+    </row>
+    <row r="66" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="D66" s="91"/>
+    </row>
+    <row r="67" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B67" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="D67" s="91"/>
+    </row>
+    <row r="68" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="D68" s="81"/>
+    </row>
+    <row r="69" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B69" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" s="89"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B70" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="D70" s="91"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B71" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" s="90" t="s">
+        <v>117</v>
+      </c>
+      <c r="D71" s="91"/>
+    </row>
+    <row r="72" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" s="81"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B73" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="D73" s="89"/>
+    </row>
+    <row r="74" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B74" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="D74" s="91"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B75" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" s="90" t="s">
+        <v>119</v>
+      </c>
+      <c r="D75" s="91"/>
+    </row>
+    <row r="76" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" s="80"/>
+      <c r="D76" s="81"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B77" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="88"/>
+      <c r="D77" s="89"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B78" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="90"/>
+      <c r="D78" s="91"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B79" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C79" s="90"/>
+      <c r="D79" s="91"/>
+    </row>
+    <row r="80" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="80"/>
+      <c r="D80" s="81"/>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/仕様書/Character_Menu.xlsx
+++ b/仕様書/Character_Menu.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="141">
   <si>
     <t>オブジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1003,10 +1003,78 @@
     <t>private Unit</t>
   </si>
   <si>
-    <t>UnitMenu(Unit*)</t>
-  </si>
-  <si>
-    <t>Unit _Unit：キャラクターデータ
+    <t>UnitButton</t>
+  </si>
+  <si>
+    <t>スクロールでキャラクターボタンの座標を移動させる</t>
+    <rPh sb="16" eb="18">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクロールで精霊ボタンの座標を移動させる</t>
+    <rPh sb="6" eb="8">
+      <t>セイレイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>private 
+vector&lt;UnitButton*&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pribate
+vector&lt;FairyButton*&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>private
+vector&lt;ScrollButton*&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックされたユニットの詳細ステータスを表示する</t>
+    <rPh sb="12" eb="14">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cancelButton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>private CancelButton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンセルボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unitrStatus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unit _unit：キャラクターデータ
 int num：ステータスを表示するキャラクターの配列番号</t>
     <rPh sb="35" eb="37">
       <t>ヒョウジ</t>
@@ -1020,10 +1088,84 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UnitButton</t>
-  </si>
-  <si>
-    <t>uharacerStatus</t>
+    <t>sRect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UIを表示するときの枠</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unsigned int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x座標</t>
+    <rPh sb="1" eb="3">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>y座標</t>
+    <rPh sb="1" eb="3">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幅</t>
+    <rPh sb="0" eb="1">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高さ</t>
+    <rPh sb="0" eb="1">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UnitMenu(vector&lt;Unit*&gt;)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1031,122 +1173,49 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>void Scroll(UnitButton* _unitButton)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>void Scroll(FairyButton* _fairyButton)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スクロールでキャラクターボタンの座標を移動させる</t>
-    <rPh sb="16" eb="18">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スクロールで精霊ボタンの座標を移動させる</t>
-    <rPh sb="6" eb="8">
+    <t>void ChangeEquip(vector&lt;Unit*&gt; _unit,vector&lt;FairyButton*&gt; _fairy)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void Scroll(vector&lt;FairyButton*&gt; _fairyButton)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vector&lt;FairyButton*&gt; _fairyButton：精霊のボタン配列</t>
+    <rPh sb="34" eb="36">
       <t>セイレイ</t>
     </rPh>
-    <rPh sb="12" eb="14">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>void ChangeEquip(Unit* _unit,FairyButton* _fairy)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Unit* _unit：選択しているキャラクターの情報
-FairyButton* _fairybutton：選択された精霊の情報(装備する精霊)</t>
-    <rPh sb="12" eb="14">
+    <rPh sb="40" eb="42">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void Scroll(vector&lt;UnitButton*&gt; _unitButton)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vector&lt;UnitButton*&gt; _unitButton：ボタン一覧</t>
+    <rPh sb="35" eb="37">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vector&lt;UnitButton*&gt; _unit：選択しているキャラクターの情報
+vector&lt;FairyButton*&gt; _fairybutton：精霊の情報</t>
+    <rPh sb="26" eb="28">
       <t>センタク</t>
     </rPh>
-    <rPh sb="25" eb="27">
+    <rPh sb="39" eb="41">
       <t>ジョウホウ</t>
     </rPh>
-    <rPh sb="54" eb="56">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="59" eb="61">
+    <rPh sb="76" eb="78">
       <t>セイレイ</t>
     </rPh>
-    <rPh sb="62" eb="64">
+    <rPh sb="79" eb="81">
       <t>ジョウホウ</t>
     </rPh>
-    <rPh sb="65" eb="67">
-      <t>ソウビ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>セイレイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UnitButton* _unitButton：ボタン一覧</t>
-    <rPh sb="27" eb="29">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FairyButton* _fairyButton：精霊のボタン配列</t>
-    <rPh sb="26" eb="28">
-      <t>セイレイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ハイレツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>private 
-vector&lt;UnitButton*&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pribate
-vector&lt;FairyButton*&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>private
-vector&lt;ScrollButton*&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリックされたユニットの詳細ステータスを表示する</t>
-    <rPh sb="12" eb="14">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cancelButton</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>private CancelButton</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャンセルボタン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2001,6 +2070,90 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2009,90 +2162,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3043,10 +3112,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D80"/>
+  <dimension ref="B1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3102,25 +3171,25 @@
       <c r="B8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="79"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="94"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="77"/>
+      <c r="D9" s="96"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="86"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="24" t="s">
@@ -3149,32 +3218,36 @@
       <c r="D15" s="36"/>
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="94"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="92"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="72"/>
-      <c r="D17" s="73"/>
+      <c r="C17" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="74"/>
     </row>
     <row r="18" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="75"/>
+      <c r="C18" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="79"/>
     </row>
     <row r="19" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="71"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="99"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="43" t="s">
@@ -3188,498 +3261,611 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="3"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
+      <c r="B21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B22" s="3"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
+      <c r="B22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B23" s="3"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-    </row>
-    <row r="24" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="4"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="29"/>
+      <c r="B23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="25" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-    </row>
-    <row r="26" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="85" t="s">
+      <c r="B25" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="73"/>
+      <c r="D26" s="74"/>
+    </row>
+    <row r="27" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
+    </row>
+    <row r="28" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="87"/>
-    </row>
-    <row r="27" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="30" t="s">
+      <c r="C28" s="98"/>
+      <c r="D28" s="99"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B29" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C29" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D29" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B28" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="19" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B30" s="3"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B31" s="3"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B32" s="3"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
+    </row>
+    <row r="33" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="4"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="29"/>
+    </row>
+    <row r="34" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+    </row>
+    <row r="35" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="88"/>
+      <c r="D35" s="89"/>
+    </row>
+    <row r="36" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B37" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B29" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="31" t="s">
+    <row r="38" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B38" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D38" s="32" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B30" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="31" t="s">
+    <row r="39" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B39" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D39" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B31" s="3" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B40" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C40" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D40" s="32" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B32" s="3" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B41" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C41" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D41" s="32" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B33" s="10" t="s">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B42" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" s="34" t="s">
+      <c r="C42" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="34" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B34" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B35" s="10"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="34"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B36" s="10"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="34"/>
-    </row>
-    <row r="37" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="4"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="29"/>
-    </row>
-    <row r="38" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-    </row>
-    <row r="39" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="85" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B43" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B44" s="10"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="34"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B45" s="10"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="34"/>
+    </row>
+    <row r="46" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="4"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="29"/>
+    </row>
+    <row r="47" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+    </row>
+    <row r="48" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="86"/>
-      <c r="D39" s="87"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B40" s="30" t="s">
+      <c r="C48" s="88"/>
+      <c r="D48" s="89"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B49" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="C49" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="39" t="s">
+      <c r="D49" s="39" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B41" s="37"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="32"/>
-    </row>
-    <row r="42" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="41"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="29"/>
-    </row>
-    <row r="43" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="44" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="85" t="s">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B50" s="37"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="32"/>
+    </row>
+    <row r="51" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="41"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="29"/>
+    </row>
+    <row r="52" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="53" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="86"/>
-      <c r="D44" s="87"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B45" s="2" t="s">
+      <c r="C53" s="88"/>
+      <c r="D53" s="89"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B54" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45" s="89"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B46" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="91"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B47" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47" s="91"/>
-    </row>
-    <row r="48" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" s="81"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B49" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" s="88" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" s="89"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B50" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="90"/>
-      <c r="D50" s="91"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B51" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" s="91"/>
-    </row>
-    <row r="52" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="D52" s="81"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B53" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="D53" s="89"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B54" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="90" t="s">
-        <v>98</v>
-      </c>
-      <c r="D54" s="91"/>
+      <c r="C54" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" s="81"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="70"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B56" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="D55" s="91"/>
-    </row>
-    <row r="56" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="4" t="s">
+      <c r="C56" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="70"/>
+    </row>
+    <row r="57" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="D56" s="81"/>
-    </row>
-    <row r="57" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="72"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B58" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="88" t="s">
-        <v>83</v>
-      </c>
-      <c r="D57" s="89"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B58" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="90" t="s">
-        <v>84</v>
-      </c>
-      <c r="D58" s="91"/>
+      <c r="C58" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="81"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="69"/>
+      <c r="D59" s="70"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B60" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="70"/>
+    </row>
+    <row r="61" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" s="72"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B62" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="81"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" s="70"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B64" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="70"/>
+    </row>
+    <row r="65" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="72"/>
+    </row>
+    <row r="66" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66" s="81"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B67" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="70"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B68" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="90" t="s">
+      <c r="C68" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="D59" s="91"/>
-    </row>
-    <row r="60" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="10" t="s">
+      <c r="D68" s="70"/>
+    </row>
+    <row r="69" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="95" t="s">
+      <c r="C69" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="D60" s="96"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B61" s="2" t="s">
+      <c r="D69" s="83"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B70" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="D61" s="73"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B62" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="97" t="s">
-        <v>123</v>
-      </c>
-      <c r="D62" s="98"/>
-    </row>
-    <row r="63" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C63" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="D63" s="98"/>
-    </row>
-    <row r="64" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" s="74" t="s">
-        <v>103</v>
-      </c>
-      <c r="D64" s="75"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B65" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C65" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="D65" s="89"/>
-    </row>
-    <row r="66" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="D66" s="91"/>
-    </row>
-    <row r="67" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C67" s="90" t="s">
-        <v>116</v>
-      </c>
-      <c r="D67" s="91"/>
-    </row>
-    <row r="68" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C68" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D68" s="81"/>
-    </row>
-    <row r="69" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C69" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="D69" s="89"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B70" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="D70" s="91"/>
+      <c r="C70" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="D70" s="74"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="D71" s="76"/>
+    </row>
+    <row r="72" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B72" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C71" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="D71" s="91"/>
-    </row>
-    <row r="72" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="4" t="s">
+      <c r="C72" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" s="76"/>
+    </row>
+    <row r="73" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C72" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="D72" s="81"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="D73" s="79"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B74" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C73" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="D73" s="89"/>
-    </row>
-    <row r="74" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="3" t="s">
+      <c r="C74" s="80" t="s">
+        <v>135</v>
+      </c>
+      <c r="D74" s="81"/>
+    </row>
+    <row r="75" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B75" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="D74" s="91"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B75" s="3" t="s">
+      <c r="C75" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="D75" s="70"/>
+    </row>
+    <row r="76" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B76" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C75" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="D75" s="91"/>
-    </row>
-    <row r="76" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="4" t="s">
+      <c r="C76" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="D76" s="70"/>
+    </row>
+    <row r="77" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C76" s="80"/>
-      <c r="D76" s="81"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B77" s="2" t="s">
+      <c r="C77" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="D77" s="72"/>
+    </row>
+    <row r="78" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B78" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C77" s="88"/>
-      <c r="D77" s="89"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B78" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78" s="90"/>
-      <c r="D78" s="91"/>
+      <c r="C78" s="80" t="s">
+        <v>138</v>
+      </c>
+      <c r="D78" s="81"/>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="D79" s="70"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B80" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C79" s="90"/>
-      <c r="D79" s="91"/>
-    </row>
-    <row r="80" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="4" t="s">
+      <c r="C80" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="D80" s="70"/>
+    </row>
+    <row r="81" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C80" s="80"/>
-      <c r="D80" s="81"/>
+      <c r="C81" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="D81" s="72"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B82" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C82" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="D82" s="81"/>
+    </row>
+    <row r="83" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B83" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="D83" s="70"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B84" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C84" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="D84" s="70"/>
+    </row>
+    <row r="85" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C85" s="71"/>
+      <c r="D85" s="72"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B86" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C86" s="80"/>
+      <c r="D86" s="81"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B87" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="69"/>
+      <c r="D87" s="70"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B88" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C88" s="69"/>
+      <c r="D88" s="70"/>
+    </row>
+    <row r="89" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C89" s="71"/>
+      <c r="D89" s="72"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="53">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="C78:D78"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C81:D81"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="C64:D64"/>
@@ -3687,46 +3873,23 @@
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C73:D73"/>
     <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="C71:D71"/>
     <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C82:D82"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
